--- a/metadata/2022/hwb_metadata_s4_su_row_names.xlsx
+++ b/metadata/2022/hwb_metadata_s4_su_row_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/victoria_dunn_gov_scot/Documents/Git Repos/HWB Rap Project/hwb-census/metadata/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{2A065E40-D519-4FAD-A40E-D1B12E50C0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C340402-65A1-428D-848B-6FA734F099F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC5D17EC-EAD1-4BE0-B36D-25DDFE610059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{1E046C46-9FDC-44F6-B9DE-0C476F144D2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1E046C46-9FDC-44F6-B9DE-0C476F144D2A}"/>
   </bookViews>
   <sheets>
     <sheet name="S4_SU" sheetId="1" r:id="rId1"/>
@@ -36,258 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="153">
-  <si>
-    <t>Q1. Are you happy to continue taking part in this Substance Use Census?</t>
-  </si>
-  <si>
-    <t>Q2. What is your sex?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3. Please enter your SIMD value (this provides an indication of the type of area you live in, and not about you specifically).
-Your teacher should have given this to you.  Please leave this blank if you do not wish to provide this.
- </t>
-  </si>
-  <si>
-    <t>Q4. Now read the following statements carefully and select the option which best describes you</t>
-  </si>
-  <si>
-    <t>Q5.1. I buy them from a supermarket</t>
-  </si>
-  <si>
-    <t>Q5.2. I buy them from a newsagent, tobacconist or a sweet shop</t>
-  </si>
-  <si>
-    <t>Q5.3. I buy them from a garage shop</t>
-  </si>
-  <si>
-    <t>Q5.4. I buy them from a van, such as an ice cream van or burger van</t>
-  </si>
-  <si>
-    <t>Q5.5. I buy them from some other type of shop</t>
-  </si>
-  <si>
-    <t>Q5.6. I buy them from a street market</t>
-  </si>
-  <si>
-    <t>Q5.7. I buy them on the internet</t>
-  </si>
-  <si>
-    <t>Q5.8. I buy cigarettes/tobacco from friends or relatives</t>
-  </si>
-  <si>
-    <t>Q5.9. I buy cigarettes/tobacco from someone else</t>
-  </si>
-  <si>
-    <t>Q5.10. I ask someone else under the age of 18 to buy me cigarettes/tobacco</t>
-  </si>
-  <si>
-    <t>Q5.11. I ask an adult I know to buy me cigarettes/tobacco</t>
-  </si>
-  <si>
-    <t>Q5.12. I ask an adult I don’t know to buy me cigarettes/tobacco</t>
-  </si>
-  <si>
-    <t>Q5.13. Friends give me cigarettes/tobacco</t>
-  </si>
-  <si>
-    <t>Q5.14. My brother or sister gives me cigarettes/tobacco</t>
-  </si>
-  <si>
-    <t>Q5.15. My mother, father or carer gives me cigarettes/tobacco</t>
-  </si>
-  <si>
-    <t>Q5.16. I take cigarettes/tobacco without asking</t>
-  </si>
-  <si>
-    <t>Q5.17. I get cigarettes/tobacco in some other way</t>
-  </si>
-  <si>
-    <t>Q6. In the last 4 weeks, have you bought or tried to buy cigarettes/tobacco from any kind of shop, supermarket or van?</t>
-  </si>
-  <si>
-    <t>Q7. How many cigarettes (if any) did you smoke on average each day in the last 7 days?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q8. Now read the following statements carefully and tick the box next to the ONE which best describes you. </t>
-  </si>
-  <si>
-    <t>Q9.1. I buy them from a supermarket</t>
-  </si>
-  <si>
-    <t>Q9.2. I buy them from a newsagent, tobacconist, vape shop or a sweet shop</t>
-  </si>
-  <si>
-    <t>Q9.3. I buy them from a garage shop</t>
-  </si>
-  <si>
-    <t>Q9.4. I buy them from a van, such as an ice cream van or burger van</t>
-  </si>
-  <si>
-    <t>Q9.5. I buy them from some other type of shop</t>
-  </si>
-  <si>
-    <t>Q9.6. I buy them from a street market</t>
-  </si>
-  <si>
-    <t>Q9.7. I buy them on the internet</t>
-  </si>
-  <si>
-    <t>Q9.8. I buy e-cigarettes/refills from friends or relatives</t>
-  </si>
-  <si>
-    <t>Q9.9. I buy e-cigarettes/refills from someone else</t>
-  </si>
-  <si>
-    <t>Q9.10. I ask someone else under the age of 18 to buy me e-cigarettes/refills</t>
-  </si>
-  <si>
-    <t>Q9.11. I ask an adult I know to buy me e-cigarettes/refills</t>
-  </si>
-  <si>
-    <t>Q9.12. I ask an adult I don’t know to buy me e-cigarettes/refills</t>
-  </si>
-  <si>
-    <t>Q9.13. Friends give me e-cigarettes/refills</t>
-  </si>
-  <si>
-    <t>Q9.14. My brother or sister gives me e-cigarettes/refills</t>
-  </si>
-  <si>
-    <t>Q9.15. My mother, father or carer gives me e-cigarettes/refills</t>
-  </si>
-  <si>
-    <t>Q9.16. I take e-cigarettes/refills without asking</t>
-  </si>
-  <si>
-    <t>Q9.17. I get e-cigarettes/refills in some other way</t>
-  </si>
-  <si>
-    <t>Q10. Have you ever had a proper alcoholic drink - a whole drink, not just a sip?PLEASE DON'T COUNT DRINKS LABELLED AS LOW ALCOHOL</t>
-  </si>
-  <si>
-    <t>Q11.1. Beer or lager</t>
-  </si>
-  <si>
-    <t>Q11.2. Wine or champagne</t>
-  </si>
-  <si>
-    <t>Q11.3. Alcopops (e.g. Smirnoff Ice, Bacardi Breezer, WKD)</t>
-  </si>
-  <si>
-    <t>Q11.4. Spirits (e.g. whisky, vodka, rum)</t>
-  </si>
-  <si>
-    <t>Q11.5. Cider</t>
-  </si>
-  <si>
-    <t>Q11.6. Fortified (strong) wine (e.g. sherry, martini, port, Buckfast)</t>
-  </si>
-  <si>
-    <t>Q11.7. Any other drink that contains alcohol</t>
-  </si>
-  <si>
-    <t>Q12. How often would you say you get drunk?</t>
-  </si>
-  <si>
-    <t>Q13. Where do you USUALLY get your alcohol from?</t>
-  </si>
-  <si>
-    <t>Q14.1. In a pub or bar</t>
-  </si>
-  <si>
-    <t>Q14.2. In a club or disco</t>
-  </si>
-  <si>
-    <t>Q14.3. At a party with friends</t>
-  </si>
-  <si>
-    <t>Q14.4. At my home</t>
-  </si>
-  <si>
-    <t>Q14.5. At someone else's home</t>
-  </si>
-  <si>
-    <t>Q14.6. Out on the street, in a park or other outdoor area</t>
-  </si>
-  <si>
-    <t>Q14.7. Somewhere else</t>
-  </si>
-  <si>
-    <t>Q15. Do your parents/carers allow you to drink alcohol at home?</t>
-  </si>
-  <si>
-    <t>Q16. The last time someone bought you alcohol, who was it?</t>
-  </si>
-  <si>
-    <t>Q17. Have you ever taken illegal drugs, drugs formerly known as legal highs, solvents or prescription drugs that were not prescribed to you?</t>
-  </si>
-  <si>
-    <t>Q18. How often do you use drugs?</t>
-  </si>
-  <si>
-    <t>Q19. Have you taken any drugs in the last year?</t>
-  </si>
-  <si>
-    <t>Q20.1. Cannabis (Weed, Skunk, Green, Hash, Blow, Joints, Marijuana)</t>
-  </si>
-  <si>
-    <t>Q20.2. Gas, Glue or Other Solvents</t>
-  </si>
-  <si>
-    <t>Q20.3. Amphetamines (Speed, Whizz, Sulph, Paste)</t>
-  </si>
-  <si>
-    <t>Q20.4. Ecstasy (E, Eccies, XTC, Pills)</t>
-  </si>
-  <si>
-    <t>Q20.5. Cyroban (Cy, Cyber, CBan)</t>
-  </si>
-  <si>
-    <t>Q20.6. Benzos (Valium, Vallies, Blues, Whites, Yellows, Xanax)</t>
-  </si>
-  <si>
-    <t>Q20.7. Heroin (Smack, Kit, H, Brown, Skag)</t>
-  </si>
-  <si>
-    <t>Q20.8. Magic Mushrooms (Shrooms)</t>
-  </si>
-  <si>
-    <t>Q20.9. Methadone (Physeptone, Meth)</t>
-  </si>
-  <si>
-    <t>Q20.10. MDMA crystals/crystals (Mandy, Molly, Madman)</t>
-  </si>
-  <si>
-    <t>Q20.11. Cocaine (Coke, Charlie, C, Proper, Council)</t>
-  </si>
-  <si>
-    <t>Q20.12. Anabolic Steroids (Roids)</t>
-  </si>
-  <si>
-    <t>Q20.13. Unknown White Powders (Gear)</t>
-  </si>
-  <si>
-    <t>Q20.14. Ketamine (Ket, K)</t>
-  </si>
-  <si>
-    <t>Q20.15. Synthetic Cannabinoids (SPICE, RedExodus, Mamba)</t>
-  </si>
-  <si>
-    <t>Q20.16. LSD (Acid, Blotters)</t>
-  </si>
-  <si>
-    <t>Q20.17. 2C (2CB, 2CI, 2CE)</t>
-  </si>
-  <si>
-    <t>Q20.18. Diet Pills</t>
-  </si>
-  <si>
-    <t>Q20.19. Tanning Pills</t>
-  </si>
-  <si>
-    <t>Q20.20. Other drugs including prescription drugs not prescribed to you</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="153">
   <si>
     <t>Female</t>
   </si>
@@ -497,6 +246,255 @@
   </si>
   <si>
     <t>Data not collected</t>
+  </si>
+  <si>
+    <t>take_part</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>simd_decile</t>
+  </si>
+  <si>
+    <t>cigarettes_smoking_status</t>
+  </si>
+  <si>
+    <t>cigarettes_source_supermarket</t>
+  </si>
+  <si>
+    <t>cigarettes_source_newsagent</t>
+  </si>
+  <si>
+    <t>cigarettes_source_garage_shop</t>
+  </si>
+  <si>
+    <t>cigarettes_source_van</t>
+  </si>
+  <si>
+    <t>cigarettes_source_hop_other</t>
+  </si>
+  <si>
+    <t>cigarettes_source_street_market</t>
+  </si>
+  <si>
+    <t>cigarettes_source_internet</t>
+  </si>
+  <si>
+    <t>cigarettes_source_friends_relatives</t>
+  </si>
+  <si>
+    <t>cigarettes_source_someone_else</t>
+  </si>
+  <si>
+    <t>cigarettes_source_ask_minor_known</t>
+  </si>
+  <si>
+    <t>cigarettes_source_ask_adult_known</t>
+  </si>
+  <si>
+    <t>cigarettes_source_ask_adult_unknown</t>
+  </si>
+  <si>
+    <t>cigarettes_source_friends_provide</t>
+  </si>
+  <si>
+    <t>cigarettes_source_siblings_provide</t>
+  </si>
+  <si>
+    <t>cigarettes_source_parents_provide</t>
+  </si>
+  <si>
+    <t>cigarettes_source_take_without_asking</t>
+  </si>
+  <si>
+    <t>cigarettes_source_other</t>
+  </si>
+  <si>
+    <t>cigarettes_attempts_buying</t>
+  </si>
+  <si>
+    <t>cigarettes_daily_number</t>
+  </si>
+  <si>
+    <t>e_cigarettes_use_frequency</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_supermarket</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_newsagent</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_garage_shop</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_van</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_hop_other</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_street_market</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_internet</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_friends_relatives</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_someone_else</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_ask_minor_known</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_ask_adult_known</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_ask_adult_unknown</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_friends_provide</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_siblings_provide</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_parents_provide</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_take_without_asking</t>
+  </si>
+  <si>
+    <t>e_cigarettes_source_other</t>
+  </si>
+  <si>
+    <t>alcohol_ever_had_any</t>
+  </si>
+  <si>
+    <t>alcohol_frequency_type_beer</t>
+  </si>
+  <si>
+    <t>alcohol_frequency_type_wine</t>
+  </si>
+  <si>
+    <t>alcohol_frequency_type_alcopops</t>
+  </si>
+  <si>
+    <t>alcohol_frequency_type_spirits</t>
+  </si>
+  <si>
+    <t>alcohol_frequency_type_cider</t>
+  </si>
+  <si>
+    <t>alcohol_frequency_type_wine_fortified</t>
+  </si>
+  <si>
+    <t>alcohol_frequency_type_other</t>
+  </si>
+  <si>
+    <t>alcohol_frequency_getting_drunk</t>
+  </si>
+  <si>
+    <t>alcohol_usual_source</t>
+  </si>
+  <si>
+    <t>alcohol_usual_drinking_location_pub</t>
+  </si>
+  <si>
+    <t>alcohol_usual_drinking_location_club</t>
+  </si>
+  <si>
+    <t>alcohol_usual_drinking_location_party</t>
+  </si>
+  <si>
+    <t>alcohol_usual_drinking_location_home</t>
+  </si>
+  <si>
+    <t>alcohol_usual_drinking_location_someones_home</t>
+  </si>
+  <si>
+    <t>alcohol_usual_drinking_location_outdoors</t>
+  </si>
+  <si>
+    <t>alcohol_usual_drinking_location_elsewhere</t>
+  </si>
+  <si>
+    <t>alcohol_drinking_allowed_at_home</t>
+  </si>
+  <si>
+    <t>alcohol_last_provided_by</t>
+  </si>
+  <si>
+    <t>drugs_ever_taken</t>
+  </si>
+  <si>
+    <t>drugs_use_frequency</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_cannabis</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_solvents</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_amphetamines</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_ecstasy</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_cyroban</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_benzos</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_heroin</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_mushrooms</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_methadone</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_mdma</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_cocaine</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_steroids</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_gear</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_ketamine</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_synthetic_cannabinoids</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_lsd</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_2c</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_diet_pills</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_tanning_pills</t>
+  </si>
+  <si>
+    <t>drugs_use_last_year_type_other</t>
   </si>
 </sst>
 </file>
@@ -561,6 +559,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -863,1477 +865,1508 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BL5" sqref="BL5:CE5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="AG1" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="AI1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="AJ1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="AK1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="AL1" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AM1" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="AN1" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="AO1" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AP1" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="AQ1" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AR1" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="AS1" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="AT1" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="AU1" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="AV1" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="AW1" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="AX1" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="AY1" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AZ1" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="BA1" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="BB1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="BC1" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="BD1" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="BE1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="BF1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="BG1" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="BH1" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="BI1" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="BJ1" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="BK1" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="BL1" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="BM1" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="BN1" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="BO1" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="BP1" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="BQ1" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="BR1" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="BS1" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="BT1" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="BU1" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="BV1" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="BW1" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="BX1" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="BY1" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="BZ1" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="CA1" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="CB1" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="CC1" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="CD1" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="CE1" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="R2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="V2" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="W2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="X2" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AM2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AN2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="AT2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="AU2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="AV2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="AW2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="AX2" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="AZ2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BA2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BC2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BD2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BE2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BF2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BG2" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="BH2" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="BI2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BJ2" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="BK2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BL2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BM2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BN2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BO2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BP2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BQ2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BR2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BS2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BT2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BU2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BV2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BW2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BX2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BY2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="BZ2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="CA2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="CB2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="CC2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="CD2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="CE2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="R3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="U3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="V3" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="X3" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AL3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AN3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="AQ3" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="AR3" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="AS3" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="AT3" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="AU3" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="AV3" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="AW3" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="AX3" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="AY3" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BA3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BB3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BD3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BE3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BF3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BG3" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="BH3" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="BI3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BJ3" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="BK3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BL3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BM3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BN3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BO3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BP3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BQ3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BR3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BS3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BT3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BU3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BV3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BW3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BX3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BY3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="BZ3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="CA3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="CB3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="CC3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="CD3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="CE3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="V4" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="Z4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AD4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AF4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AG4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AH4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AJ4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AK4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AL4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AM4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AN4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AO4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AP4" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="AR4" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="AS4" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="AT4" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="AU4" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="AV4" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="AW4" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="AX4" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="AY4" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AZ4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BA4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BB4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BC4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BD4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BE4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BF4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BG4" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="BH4" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="BI4" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="BJ4" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="BK4" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="BL4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BM4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BN4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BO4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BP4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BQ4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BR4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BS4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BT4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BU4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BV4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BW4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BX4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BY4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BZ4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="CA4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="CB4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="CC4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="CD4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="CE4" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="R5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="S5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="T5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="U5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="V5" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AB5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AC5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AD5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AE5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AF5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AG5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AH5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AI5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AJ5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AK5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AL5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AM5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AN5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AO5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AP5" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AQ5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="AR5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="AS5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="AT5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="AU5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="AV5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="AW5" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="AX5" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="AY5" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="AZ5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BA5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BB5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BC5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BD5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BE5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BF5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BG5" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="BH5" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="BI5" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BJ5" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="BK5" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BL5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BM5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BN5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BO5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BP5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BQ5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BR5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BS5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BT5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BU5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BV5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BW5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BX5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BY5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BZ5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="CA5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="CB5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="CC5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="CD5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="CE5" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:83" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>152</v>
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="V6" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="X6" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="AP6" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AQ6" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="AR6" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="AS6" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="AT6" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="AU6" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="AV6" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="AW6" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="AX6" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AY6" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="BG6" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BH6" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="BI6" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BJ6" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="BK6" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="V7" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="X7" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="AQ7" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AR7" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AS7" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AT7" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AV7" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AW7" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AX7" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AY7" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="BG7" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BH7" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="BJ7" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="X8" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AR8" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AS8" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AT8" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AU8" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AV8" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AW8" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AX8" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="AY8" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="BH8" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="BJ8" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="W9" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="X9" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AX9" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AY9" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="BH9" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="BJ9" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:83" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="W10" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="X10" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AX10" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="AY10" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="BH10" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AY11" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="BH11" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AY12" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="BH12" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AY13" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="BH13" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:83" x14ac:dyDescent="0.35">
       <c r="AY14" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="BH14" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.35">
       <c r="BH15" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
